--- a/results/correct models/R15-video-rental/compositions_contradiction_check.xlsx
+++ b/results/correct models/R15-video-rental/compositions_contradiction_check.xlsx
@@ -1,37 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\semantic-alignment-detection\results\correct models\R15-video-rental\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42417410-7DB8-4A75-8AD8-0EC735A76CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>actual_description</t>
+  </si>
+  <si>
+    <t>generated_description</t>
+  </si>
+  <si>
+    <t>Bar code Ids for each tape are entered, and video information from inventory is displayed.</t>
+  </si>
+  <si>
+    <t>Each inventory is made up of tapes</t>
+  </si>
+  <si>
+    <t>The video inventory file is updated.</t>
+  </si>
+  <si>
+    <t>llm response</t>
+  </si>
+  <si>
+    <t>Statement 2 refers to "each tape" with IDs being entered, implying that there are multiple tapes. The statement also talks about "video information from inventory" which may suggest that tapes make up the inventory as the video information comes from there. However, it does not definitively say that inventory is composed only of tape. Considering this along with the first statement that says, "Each inventory is made up of tapes," it can be concluded that the tape is indeed a part of the inventory. 
+Conclusion: Yes</t>
+  </si>
+  <si>
+    <t>Statement 2 mentions the update of the video inventory file but does not provide further details about the composition of the inventory. Given that information about the composition or elements of the inventory is not directly mentioned or inferred in this statement, we cannot definitively decide whether inventory consists of tapes based on statement 2 alone.
+Conclusion: Not Sure</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +83,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,223 +410,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>actual_description</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>generated_description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Do these statements contradict each other? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Are these statements mutually exclusive? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Do these statements clash or conflict with each other? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Are these statements at odds with each other? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Do these statements negate each other? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Are these statements inconsistent? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Do these statements oppose each other? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Are these statements in disagreement? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Are these statements incompatible? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Do these statements present conflicting viewpoints? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Bar code Ids for each tape are entered, and video information from inventory is displayed.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Each inventory is made up of tapes</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>No, these statements do not contradict each other. Statement 1 is placing tapes as the contents of the inventory, while Statement 2 explains a process involving individual tapes from that inventory.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>No, these statements are not mutually exclusive. They can both occur at the same time. One statement is about the composition of the inventory, and the other is about the process used to keep track of the items in the inventory.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>No, these statements do not clash or conflict with each other. They both pertain to the process of inventorying and tracking tapes.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>No, these statements are not at odds with each other. The first statement explains that the inventory consists of tapes. The second statement explains a process of entering bar code IDs for each of these tapes in order to display video information from the inventory. These statements are consistent with each other.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No, these statements do not negate each other. The first statement talks about the composition of the inventory, and the second statement details a process related to the tapes in the inventory. They are providing different information and do not contradict each other.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>No, these statements are not inconsistent. They can both exist in the same context. Statement 1 expresses that each inventory is composed of tapes. Statement 2 discusses a process where individual tapes are tagged with bar code IDs, which are then used to display video information from the inventory. The two statements could feasibly be part of the same tape/inventory management system.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>No, these statements do not oppose each other. They both deal with aspects of managing an inventory of tapes.</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>No, these statements are not in disagreement. The first statement talks about the composition of the inventory (tapes) whereas the second statement elaborates on a process (entering bar code IDs and displaying video information) regarding the items in the inventory (tapes). They can both coexist without contradicting each other.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>No, these statements are not incompatible. Both are discussing aspects of an inventory of tapes, where each tape has a bar code ID and displays video information from the inventory.</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>No, these statements do not present conflicting viewpoints. They both present information about a process involving tapes in an inventory.</t>
-        </is>
+    <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>The video inventory file is updated.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Each inventory is made up of tapes</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>No, these statements do not contradict each other. The first statement is about what the inventory contains, while the second statement is about an action being taken on an inventory file.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>No, these statements are not mutually exclusive. They can both occur at the same time. One refers to the composition of an inventory, the other refers to an action performed on a specific type of inventory file.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>No, these statements do not clash or conflict with each other. One speaks about the composition of the inventory and the other refers to the updating of a specific type of inventory file. They can coexist without contradiction.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>No, these statements are not at odds with each other. The first is about what the inventory consists of, while the second is about the action of updating the inventory file. They do not contradict each other.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No, these statements do not negate each other. They are referring to different aspects and can exist without contradicting each other. Statement 1 talks about the composition of an inventory, while statement 2 pertains to an action performed on a specific type of inventory.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>No, these statements are not inconsistent. The first statement talks about the composition of each inventory, while the second statement refers to the action of updating a specific type of inventory file. They can both be true at the same time.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>No, these statements do not oppose each other. They are about different aspects of an inventory. One is about the composition of an inventory, and the other is the process of updating the inventory file.</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>No, these statements are not in disagreement. The first statement is about the composition of each inventory, while the second is about an action performed on a specific inventory file. They discuss different aspects and don't contradict each other.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>No, these statements are not incompatible. The first statement simply states the composition of the inventory while the second statement specifies an action taken regarding a particular type of inventory. They do not conflict with each other.</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>No, these statements do not present conflicting viewpoints. They are talking about two different aspects: the composition of the inventory and the procedure or process related to an inventory file, respectively.</t>
-        </is>
+    <row r="3" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
